--- a/nr-update-readme/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-update-readme/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:15:53+00:00</t>
+    <t>2025-05-05T08:26:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-readme/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-update-readme/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:26:06+00:00</t>
+    <t>2025-05-05T08:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
